--- a/biology/Botanique/Ruellia_violacea/Ruellia_violacea.xlsx
+++ b/biology/Botanique/Ruellia_violacea/Ruellia_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruellia violacea est une espèce de plantes herbacées, endémique de Guyane, appartenant à la famille des Acanthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruellia violacea est une espèce déterminante ZNIEFF en Guyane[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruellia violacea est une espèce déterminante ZNIEFF en Guyane.
 Cette espèce est très mal-connue et mal-caractérisée, notamment dans sa distinction vis-à-vis de Ruellia rubra Aubl. 1775.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruellia violacea est une herbacée haute de 30 à 50 cm, à tige verte, quadrangulaire, aux angles arrondis, glabre ou finement pubère aux nœuds.
 La feuille porte un pétiole long de 2-4 mm, pubérulent, étroitement ailé, un limbe oblong à ovale, plutôt fin, mesurant 4,5-7 x 2,5-3 cm, atténué et acuminé à l'apex, atténué et obtus à la base.
@@ -559,7 +575,7 @@
 La corolle est violette, longue de 32 mm, avec le tube dressé, long de 12 mm pour 1 mm de large à sa base.
 La gorge est de forme obconique, mesurant 1,3 × 6 mm, avec le limbe subérigé, et des lobes de forme obovale, glabres, rétus à l'apex, mesurant 6 × 6 mm.
 Les étamines sont incluses. 
-Le fruit est inconnu[3].
+Le fruit est inconnu.
 </t>
         </is>
       </c>
@@ -588,9 +604,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruellia violacea est présente sur le littoral de la Guyane[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruellia violacea est présente sur le littoral de la Guyane.
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruellia violacea est une espèce rare, que l'on rencontre sur le littoral maritime, et qui fleurit de juin à octobre[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruellia violacea est une espèce rare, que l'on rencontre sur le littoral maritime, et qui fleurit de juin à octobre.
 </t>
         </is>
       </c>
@@ -650,9 +670,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[4] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « RUELLIA (violacea) floribus ſolitariis, alternatim axillatibus, longo pedunculo inſidentibus ; foliis tomentoſis, ovato-oblongis, acutis. (Tabula 271.)
 Planta radice fibrosâ, radiculis tuberoſis ; caules recti, pedales ramoſi, villoſi, tetragoni. Folia oppoſita, ovata, acuta, tomentoſa, léviter ſinuata, brevi petiolata. Flores alternatim axillares, ſolitarii, rare bini, longo pedunculo ſufFulti. Calix ad baſim duabus bradteis linearibus longis, acutis, munitur. Corolla monopetala, tubulofa, incurva, caerulea, faux ventricofa, ore patulo i limbus quinquefidus, lobis ina^qualibus, ſubrotundis, duobus ſuperioribus majoribus, erectis, tribus inferioribus reflexis. Stamina quatuor, duolongiora, duo brevi ora, rubo inferta. Antherje cuſpidata?, bafi bifida?. Piſtillum, germen oblongum, compreſſum. Stylus longiſſimus. Stigma bilobum. Pericarpium ; capſula pedicella, ovato-oblonga, compreſſa,' acuta, utrinque in medio ſinuata, bilocularis, bivalvis, valvulis ab apice ad baſim longitudinaliter per medium élaſticè dehiſcentibus diifepimento valvulis contrario. Semina quatuor, lenticularia.
 Florebat, ftuctmque ferebat Octobri.
